--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="144">
   <si>
     <t>TCID</t>
   </si>
@@ -320,6 +320,141 @@
   </si>
   <si>
     <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for Supplier Number</t>
+  </si>
+  <si>
+    <t>capture Supplier number</t>
+  </si>
+  <si>
+    <t>captuersupplier</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Enter contact person</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>Lg Supplier</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>Ameerpert,12-20-23,Qedgetech</t>
+  </si>
+  <si>
+    <t>Ameerpert</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Iam supplying lg goods</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Wait for Customer Number</t>
+  </si>
+  <si>
+    <t>capture Customer number</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>Ramuand krishna</t>
+  </si>
+  <si>
+    <t>Kukatpally,5-3-34/1</t>
+  </si>
+  <si>
+    <t>Ranga</t>
+  </si>
+  <si>
+    <t>Iam customer for Goods</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>captuerCustomer</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>customerTable</t>
   </si>
   <si>
     <t>Blocked</t>
@@ -333,7 +468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="67" x14ac:knownFonts="1">
+  <fonts count="132" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,361 +523,751 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
       <color indexed="12"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="12"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -787,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -859,6 +1384,71 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,7 +1732,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1178,7 +1768,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s" s="9">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.9">
@@ -1192,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s" s="10">
-        <v>97</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.9">
@@ -1203,10 +1793,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="68">
-        <v>98</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.9">
@@ -1217,10 +1807,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="69">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="73">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.5" x14ac:dyDescent="0.9">
@@ -1231,10 +1821,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="70">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="135">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1471,8 +2061,8 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1912,8 +2502,8 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1962,9 +2552,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="11">
-        <v>98</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A3" s="4" t="s">
@@ -1982,9 +2570,7 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="13">
-        <v>98</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A4" s="4" t="s">
@@ -2002,9 +2588,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="15">
-        <v>98</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A5" s="4" t="s">
@@ -2022,9 +2606,7 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s" s="17">
-        <v>98</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A6" s="4" t="s">
@@ -2042,9 +2624,7 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s" s="19">
-        <v>98</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A7" s="4" t="s">
@@ -2062,9 +2642,7 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s" s="21">
-        <v>98</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A8" s="4" t="s">
@@ -2082,9 +2660,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="23">
-        <v>98</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A9" s="4" t="s">
@@ -2102,9 +2678,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s" s="25">
-        <v>98</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A10" s="5" t="s">
@@ -2122,9 +2696,7 @@
       <c r="E10" s="6">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="27">
-        <v>98</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A11" s="5" t="s">
@@ -2142,9 +2714,7 @@
       <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s" s="29">
-        <v>98</v>
-      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A12" s="5" t="s">
@@ -2162,9 +2732,7 @@
       <c r="E12" s="6">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="31">
-        <v>98</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A13" s="5" t="s">
@@ -2182,9 +2750,7 @@
       <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s" s="33">
-        <v>98</v>
-      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A14" s="5" t="s">
@@ -2202,9 +2768,7 @@
       <c r="E14" s="6">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="35">
-        <v>98</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A15" s="5" t="s">
@@ -2222,9 +2786,7 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="F15" t="s" s="37">
-        <v>98</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A16" s="5" t="s">
@@ -2242,9 +2804,7 @@
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" t="s" s="39">
-        <v>98</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A17" s="5" t="s">
@@ -2262,9 +2822,7 @@
       <c r="E17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F17" t="s" s="41">
-        <v>98</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A18" s="5" t="s">
@@ -2282,9 +2840,7 @@
       <c r="E18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F18" t="s" s="43">
-        <v>98</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A19" s="5" t="s">
@@ -2300,11 +2856,9 @@
         <v>92</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s" s="45">
-        <v>98</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A20" s="5" t="s">
@@ -2322,9 +2876,7 @@
       <c r="E20" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F20" t="s" s="47">
-        <v>98</v>
-      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A21" s="5" t="s">
@@ -2342,9 +2894,7 @@
       <c r="E21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F21" t="s" s="49">
-        <v>98</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A22" s="5" t="s">
@@ -2362,9 +2912,7 @@
       <c r="E22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F22" t="s" s="51">
-        <v>98</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A23" s="5" t="s">
@@ -2382,9 +2930,7 @@
       <c r="E23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s" s="53">
-        <v>98</v>
-      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A24" s="5" t="s">
@@ -2402,9 +2948,7 @@
       <c r="E24" s="6">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="55">
-        <v>98</v>
-      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A25" s="5" t="s">
@@ -2422,9 +2966,7 @@
       <c r="E25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s" s="57">
-        <v>98</v>
-      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A26" s="5" t="s">
@@ -2442,9 +2984,7 @@
       <c r="E26" s="6">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="59">
-        <v>98</v>
-      </c>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A27" s="5" t="s">
@@ -2462,9 +3002,7 @@
       <c r="E27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F27" t="s" s="61">
-        <v>98</v>
-      </c>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A28" s="5" t="s">
@@ -2482,9 +3020,7 @@
       <c r="E28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F28" t="s" s="63">
-        <v>98</v>
-      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A29" s="4" t="s">
@@ -2502,9 +3038,7 @@
       <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" t="s" s="65">
-        <v>98</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
       <c r="A30" s="4" t="s">
@@ -2522,9 +3056,7 @@
       <c r="E30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F30" t="s" s="67">
-        <v>98</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2533,13 +3065,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.58984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.58984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="28.6328125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6328125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="1.2">
       <c r="A1" s="1" t="s">
@@ -2561,20 +3102,651 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="12">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="14">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="18">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="20">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="22">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="24">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="26">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="28">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="32">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="34">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="36">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="38">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s" s="40">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" t="s" s="42">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s" s="44">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s" s="46">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s" s="48">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9876543212</v>
+      </c>
+      <c r="F21" t="s" s="50">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s" s="52">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5">
+        <v>54789547895</v>
+      </c>
+      <c r="F23" t="s" s="54">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s" s="56">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s" s="58">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="60">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="62">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="64">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="66">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s" s="68">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s" s="70">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s" s="72">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.953125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.453125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.58984375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.58984375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="29.6328125"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="1.2">
       <c r="A1" s="1" t="s">
@@ -2596,7 +3768,630 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="74">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="76">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="78">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="80">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="82">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="84">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="86">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="88">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="90">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="92">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="94">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="96">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="98">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="100">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A16" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s" s="102">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A17" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" t="s" s="104">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s" s="106">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" t="s" s="108">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s" s="110">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3214785965</v>
+      </c>
+      <c r="F21" t="s" s="112">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s" s="114">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2145789547</v>
+      </c>
+      <c r="F23" t="s" s="116">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" t="s" s="118">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A25" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s" s="120">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="122">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="124">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="126">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="128">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s" s="130">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s" s="132">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s" s="134">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>